--- a/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20202.xlsx
+++ b/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20202.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="1er Parcial" sheetId="1" r:id="rId1"/>
-    <sheet name="2o Parcial" sheetId="2" r:id="rId2"/>
-    <sheet name="3er Parcial" sheetId="3" r:id="rId3"/>
+    <sheet name="3er Parcial" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Docente</t>
   </si>
@@ -454,108 +452,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>